--- a/glasscore/glasslib/NodesToResolutionCalculations.xlsx
+++ b/glasscore/glasslib/NodesToResolutionCalculations.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpatton/code/neic-glass3/glasscore/glasslib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hydra_other\glass3\glasscore\glasslib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-98960" yWindow="-4560" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-98955" yWindow="-4560" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$44:$N$83</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -58,11 +58,14 @@
   <si>
     <t>(Resolution)</t>
   </si>
+  <si>
+    <t>Trendline-check</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,12 +113,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -128,37 +134,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -219,8 +194,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00921694985495234"/>
-                  <c:y val="0.0371394932591075"/>
+                  <c:x val="-9.2169498549523401E-3"/>
+                  <c:y val="3.7139493259107502E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -260,22 +235,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>81.9</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.8666666666667</c:v>
+                  <c:v>105.86666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.3916666666667</c:v>
+                  <c:v>128.39166666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>187.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.8083333333333</c:v>
+                  <c:v>254.80833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,27 +262,123 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>93751.0</c:v>
+                  <c:v>93751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75001.0</c:v>
+                  <c:v>75001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56251.0</c:v>
+                  <c:v>56251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37501.0</c:v>
+                  <c:v>37501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18751.0</c:v>
+                  <c:v>18751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9735.0</c:v>
+                  <c:v>9735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD04-4462-9449-1B097262F924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>trend_equation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.80833333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$22:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86969.532864918117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72415.61278904551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52519.199705531842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35949.687585460975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17059.007829179871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9348.8938108131351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD04-4462-9449-1B097262F924}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -341,6 +412,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -402,6 +474,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1060,7 +1133,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1341,24 +1420,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J22" sqref="J22:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1478,7 @@
         <v>93751</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1508,7 @@
         <v>93751</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1538,7 @@
         <v>75001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1568,7 @@
         <v>75001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1598,7 @@
         <v>56251</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1628,7 @@
         <v>56251</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1658,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1688,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1718,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1669,7 +1748,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1778,7 @@
         <v>9735</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1729,15 +1808,18 @@
         <v>9735</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22">
         <f>AVERAGE(H2:H3)</f>
         <v>81.900000000000006</v>
@@ -1754,8 +1836,12 @@
         <f>AVERAGE(I2:I3)</f>
         <v>93751</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>500000000*POWER(H22,-1.965)</f>
+        <v>86969.532864918117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23">
         <f>AVERAGE(H5:H6)</f>
         <v>89.9</v>
@@ -1764,8 +1850,12 @@
         <f>AVERAGE(I5:I6)</f>
         <v>75001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" ref="J23:J27" si="0">500000000*POWER(H23,-1.965)</f>
+        <v>72415.61278904551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H24">
         <f>AVERAGE(H8:H9)</f>
         <v>105.86666666666667</v>
@@ -1774,8 +1864,12 @@
         <f>AVERAGE(I8:I9)</f>
         <v>56251</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>52519.199705531842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H25">
         <f>AVERAGE(H11:H12)</f>
         <v>128.39166666666665</v>
@@ -1784,8 +1878,12 @@
         <f>AVERAGE(I11:I12)</f>
         <v>37501</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>35949.687585460975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H26">
         <f>AVERAGE(H14:H15)</f>
         <v>187.625</v>
@@ -1794,8 +1892,12 @@
         <f>AVERAGE(I14:I15)</f>
         <v>18751</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>17059.007829179871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27">
         <f>AVERAGE(H17:H18)</f>
         <v>254.80833333333334</v>
@@ -1803,6 +1905,10 @@
       <c r="I27">
         <f>AVERAGE(I17:I18)</f>
         <v>9735</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>9348.8938108131351</v>
       </c>
     </row>
   </sheetData>

--- a/glasscore/glasslib/NodesToResolutionCalculations.xlsx
+++ b/glasscore/glasslib/NodesToResolutionCalculations.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpatton/code/neic-glass3/glasscore/glasslib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hydra_other\glass3\glasscore\glasslib\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC27F316-5A30-46B4-9DF1-DA8ACE1ED04B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98960" yWindow="-4560" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-98955" yWindow="-4560" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$44:$N$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$44:$N$83</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>x</t>
   </si>
@@ -57,13 +59,118 @@
   </si>
   <si>
     <t>(Resolution)</t>
+  </si>
+  <si>
+    <t>Calc'd estimate</t>
+  </si>
+  <si>
+    <t>5E8x^-1.965</t>
+  </si>
+  <si>
+    <t>5E8x^-1.955</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>5.3E8^1.9647</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>Res2</t>
+  </si>
+  <si>
+    <t>Res3</t>
+  </si>
+  <si>
+    <t>RMS1</t>
+  </si>
+  <si>
+    <t>RMS2</t>
+  </si>
+  <si>
+    <t>RMS3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +184,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,12 +209,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,12 +253,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -129,7 +275,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -166,8 +311,167 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E8x^-1.965</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.80833333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$22:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86969.532864918117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72415.61278904551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52519.199705531842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35949.687585460975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17059.007829179871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9348.8938108131351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2424-4C4E-98E4-497E1D12610C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E8x^-1.955</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.80833333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90886.624966515912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75747.762183089595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55025.714692109606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37738.139796541444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17975.735766641443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9881.4883545086104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2424-4C4E-98E4-497E1D12610C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$21</c:f>
@@ -219,8 +523,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00921694985495234"/>
-                  <c:y val="0.0371394932591075"/>
+                  <c:x val="-9.2169498549523401E-3"/>
+                  <c:y val="3.7139493259107502E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -260,22 +564,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>81.9</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.8666666666667</c:v>
+                  <c:v>105.86666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.3916666666667</c:v>
+                  <c:v>128.39166666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>187.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.8083333333333</c:v>
+                  <c:v>254.80833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,27 +591,107 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>93751.0</c:v>
+                  <c:v>93751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75001.0</c:v>
+                  <c:v>75001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56251.0</c:v>
+                  <c:v>56251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37501.0</c:v>
+                  <c:v>37501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18751.0</c:v>
+                  <c:v>18751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9735.0</c:v>
+                  <c:v>9735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2424-4C4E-98E4-497E1D12610C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3E8^1.9647</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.80833333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2424-4C4E-98E4-497E1D12610C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -341,6 +725,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -402,6 +787,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -442,33 +828,15 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -487,580 +855,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1340,25 +1158,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB851F-889A-40E7-AE7D-F92A77E676F0}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.90808776502274791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.82462338898400944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78077923623001189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15270.745180645792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4385957579.8444662</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4385957579.8444662</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.808058479561371</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.2283557609864734E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>932782633.48886669</v>
+      </c>
+      <c r="D13" s="1">
+        <v>233195658.37221667</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5318740213.333333</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>110765.33037502968</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15652.811314417886</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.076385714367051</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.1047000281502245E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>67306.159018529492</v>
+      </c>
+      <c r="G17" s="1">
+        <v>154224.50173152986</v>
+      </c>
+      <c r="H17" s="1">
+        <v>67306.159018529492</v>
+      </c>
+      <c r="I17" s="1">
+        <v>154224.50173152986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-440.31308370757284</v>
+      </c>
+      <c r="C18" s="2">
+        <v>101.52888278862565</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-4.3368258530359931</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.2283557609864734E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-722.20245336225298</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-158.42371405289265</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-722.20245336225298</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-158.42371405289265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1368,8 +1412,11 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1445,44 @@
       <c r="I2">
         <v>93751</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>500000000*POWER(H2,-1.965)</f>
+        <v>84752.581080069343</v>
+      </c>
+      <c r="K2">
+        <f>500000000*POWER(H2,-1.955)</f>
+        <v>88581.461614657383</v>
+      </c>
+      <c r="L2">
+        <f>$J$30*POWER(H2,$I$29)</f>
+        <v>89926.523896638872</v>
+      </c>
+      <c r="M2">
+        <f>$I2-J2</f>
+        <v>8998.4189199306566</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:O2" si="0">$I2-K2</f>
+        <v>5169.5383853426174</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>3824.4761033611285</v>
+      </c>
+      <c r="P2">
+        <f>M2*M2</f>
+        <v>80971543.058566004</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="1">N2*N2</f>
+        <v>26724127.117530756</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="2">O2*O2</f>
+        <v>14626617.465180321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1428,8 +1511,44 @@
       <c r="I3">
         <v>93751</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>500000000*POWER(H3,-1.965)</f>
+        <v>89275.166647854276</v>
+      </c>
+      <c r="K3">
+        <f>500000000*POWER(H3,-1.955)</f>
+        <v>93283.681806778186</v>
+      </c>
+      <c r="L3">
+        <f>$J$30*POWER(H3,$I$29)</f>
+        <v>94724.685247490212</v>
+      </c>
+      <c r="M3">
+        <f>$I3-J3</f>
+        <v>4475.8333521457243</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="3">$I3-K3</f>
+        <v>467.318193221814</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3" si="4">$I3-L3</f>
+        <v>-973.68524749021162</v>
+      </c>
+      <c r="P3">
+        <f>M3*M3</f>
+        <v>20033084.196180031</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3" si="5">N3*N3</f>
+        <v>218386.29371610068</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="6">O3*O3</f>
+        <v>948062.96118007461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1458,8 +1577,44 @@
       <c r="I5">
         <v>75001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="7">500000000*POWER(H5,-1.965)</f>
+        <v>72653.626314205438</v>
+      </c>
+      <c r="K5">
+        <f>500000000*POWER(H5,-1.955)</f>
+        <v>75995.458650261222</v>
+      </c>
+      <c r="L5">
+        <f>$J$30*POWER(H5,$I$29)</f>
+        <v>77090.204108832724</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M6" si="8">$I5-J5</f>
+        <v>2347.3736857945623</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N6" si="9">$I5-K5</f>
+        <v>-994.45865026122192</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O6" si="10">$I5-L5</f>
+        <v>-2089.2041088327242</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P6" si="11">M5*M5</f>
+        <v>5510163.2207607487</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q6" si="12">N5*N5</f>
+        <v>988948.00707937125</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R6" si="13">O5*O5</f>
+        <v>4364773.8083635373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1488,8 +1643,44 @@
       <c r="I6">
         <v>75001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>72178.773849237856</v>
+      </c>
+      <c r="K6">
+        <f>500000000*POWER(H6,-1.955)</f>
+        <v>75501.28397361243</v>
+      </c>
+      <c r="L6">
+        <f>$J$30*POWER(H6,$I$29)</f>
+        <v>76586.407633552022</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>2822.2261507621442</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>-500.28397361242969</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>-1585.4076335520222</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="11"/>
+        <v>7964960.4460457098</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="12"/>
+        <v>250284.05425344224</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="13"/>
+        <v>2513517.3645250229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1709,44 @@
       <c r="I8">
         <v>56251</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" ref="J8:J9" si="14">500000000*POWER(H8,-1.965)</f>
+        <v>53374.403153198888</v>
+      </c>
+      <c r="K8">
+        <f>500000000*POWER(H8,-1.955)</f>
+        <v>55917.136685280762</v>
+      </c>
+      <c r="L8">
+        <f>$J$30*POWER(H8,$I$29)</f>
+        <v>56635.533897291665</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M9" si="15">$I8-J8</f>
+        <v>2876.5968468011124</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N9" si="16">$I8-K8</f>
+        <v>333.86331471923768</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O9" si="17">$I8-L8</f>
+        <v>-384.5338972916652</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P9" si="18">M8*M8</f>
+        <v>8274809.4190261029</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q9" si="19">N8*N8</f>
+        <v>111464.71291531675</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R9" si="20">O8*O8</f>
+        <v>147866.31816631692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1548,8 +1775,44 @@
       <c r="I9">
         <v>56251</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="14"/>
+        <v>51684.504989860732</v>
+      </c>
+      <c r="K9">
+        <f>500000000*POWER(H9,-1.955)</f>
+        <v>54155.598760641325</v>
+      </c>
+      <c r="L9">
+        <f>$J$30*POWER(H9,$I$29)</f>
+        <v>54842.569731040407</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="15"/>
+        <v>4566.4950101392678</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="16"/>
+        <v>2095.4012393586745</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="17"/>
+        <v>1408.4302689595934</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="18"/>
+        <v>20852876.677626833</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="19"/>
+        <v>4390706.3539058687</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="20"/>
+        <v>1983675.8225215925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1578,8 +1841,44 @@
       <c r="I11">
         <v>37501</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" ref="J11:J12" si="21">500000000*POWER(H11,-1.965)</f>
+        <v>35680.700441033412</v>
+      </c>
+      <c r="K11">
+        <f>500000000*POWER(H11,-1.955)</f>
+        <v>37457.202506326372</v>
+      </c>
+      <c r="L11">
+        <f>$J$30*POWER(H11,$I$29)</f>
+        <v>37862.362593611062</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M12" si="22">$I11-J11</f>
+        <v>1820.2995589665879</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N12" si="23">$I11-K11</f>
+        <v>43.797493673628196</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O12" si="24">$I11-L11</f>
+        <v>-361.36259361106204</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="25">M11*M11</f>
+        <v>3313490.4843739546</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q12" si="26">N11*N11</f>
+        <v>1918.2204520915018</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:R12" si="27">O11*O11</f>
+        <v>130582.92406131358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1608,8 +1907,44 @@
       <c r="I12">
         <v>37501</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="21"/>
+        <v>36221.746301741747</v>
+      </c>
+      <c r="K12">
+        <f>500000000*POWER(H12,-1.955)</f>
+        <v>38022.274236626465</v>
+      </c>
+      <c r="L12">
+        <f>$J$30*POWER(H12,$I$29)</f>
+        <v>38436.429421840556</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="22"/>
+        <v>1279.2536982582533</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="23"/>
+        <v>-521.2742366264647</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="24"/>
+        <v>-935.42942184055573</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="25"/>
+        <v>1636490.024507418</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="26"/>
+        <v>271726.82977050351</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="27"/>
+        <v>875028.20324495633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1973,44 @@
       <c r="I14">
         <v>18751</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" ref="J14:J18" si="28">500000000*POWER(H14,-1.965)</f>
+        <v>17475.970559004123</v>
+      </c>
+      <c r="K14">
+        <f>500000000*POWER(H14,-1.955)</f>
+        <v>18412.842562259331</v>
+      </c>
+      <c r="L14">
+        <f>$J$30*POWER(H14,$I$29)</f>
+        <v>18545.912447625753</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M15" si="29">$I14-J14</f>
+        <v>1275.0294409958769</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N15" si="30">$I14-K14</f>
+        <v>338.15743774066868</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O15" si="31">$I14-L14</f>
+        <v>205.08755237424702</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P15" si="32">M14*M14</f>
+        <v>1625700.0754062585</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q15" si="33">N14*N14</f>
+        <v>114350.45269933422</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R15" si="34">O14*O14</f>
+        <v>42060.904138859514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1668,8 +2039,44 @@
       <c r="I15">
         <v>18751</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="28"/>
+        <v>16656.876043648052</v>
+      </c>
+      <c r="K15">
+        <f>500000000*POWER(H15,-1.955)</f>
+        <v>17554.124921635863</v>
+      </c>
+      <c r="L15">
+        <f>$J$30*POWER(H15,$I$29)</f>
+        <v>17676.759147028031</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="29"/>
+        <v>2094.1239563519484</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="30"/>
+        <v>1196.8750783641372</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="31"/>
+        <v>1074.2408529719687</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="32"/>
+        <v>4385355.1445671376</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="33"/>
+        <v>1432509.9532091594</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="34"/>
+        <v>1153993.410193943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1698,8 +2105,44 @@
       <c r="I17">
         <v>9735</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="28"/>
+        <v>9306.3835994664951</v>
+      </c>
+      <c r="K17">
+        <f>500000000*POWER(H17,-1.955)</f>
+        <v>9836.7845340767471</v>
+      </c>
+      <c r="L17">
+        <f>$J$30*POWER(H17,$I$29)</f>
+        <v>9876.8076529694936</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M18" si="35">$I17-J17</f>
+        <v>428.61640053350493</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N18" si="36">$I17-K17</f>
+        <v>-101.78453407674715</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O18" si="37">$I17-L17</f>
+        <v>-141.80765296949357</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P18" si="38">M17*M17</f>
+        <v>183712.01880629791</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q18" si="39">N17*N17</f>
+        <v>10360.091377220502</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R18" si="40">O17*O17</f>
+        <v>20109.410440716321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1728,8 +2171,58 @@
       <c r="I18">
         <v>9735</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="28"/>
+        <v>9391.6977047971905</v>
+      </c>
+      <c r="K18">
+        <f>500000000*POWER(H18,-1.955)</f>
+        <v>9926.4999669811914</v>
+      </c>
+      <c r="L18">
+        <f>$J$30*POWER(H18,$I$29)</f>
+        <v>9967.3414338001767</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="35"/>
+        <v>343.30229520280955</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="36"/>
+        <v>-191.49996698119139</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="37"/>
+        <v>-232.34143380017667</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="38"/>
+        <v>117856.46589151699</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="39"/>
+        <v>36672.237353797391</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="40"/>
+        <v>53982.541860321879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f>SQRT(SUM(P2:P18))</f>
+        <v>12444.679233783329</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:R19" si="41">SQRT(SUM(Q2:Q18))</f>
+        <v>5878.0485132621143</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="41"/>
+        <v>5182.689565648031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>8</v>
       </c>
@@ -1737,15 +2230,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H22">
         <f>AVERAGE(H2:H3)</f>
         <v>81.900000000000006</v>
@@ -1754,8 +2274,44 @@
         <f>AVERAGE(I2:I3)</f>
         <v>93751</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" ref="J22:J27" si="42">500000000*POWER(H22,-1.965)</f>
+        <v>86969.532864918117</v>
+      </c>
+      <c r="K22">
+        <f>500000000*POWER(H22,-1.955)</f>
+        <v>90886.624966515912</v>
+      </c>
+      <c r="L22">
+        <f>$J$30*POWER(H22,$I$29)</f>
+        <v>92278.565006516656</v>
+      </c>
+      <c r="M22">
+        <f>$I22-J22</f>
+        <v>6781.4671350818826</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N27" si="43">$I22-K22</f>
+        <v>2864.3750334840879</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O27" si="44">$I22-L22</f>
+        <v>1472.4349934833444</v>
+      </c>
+      <c r="P22">
+        <f>M22*M22</f>
+        <v>45988296.504195675</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q27" si="45">N22*N22</f>
+        <v>8204644.33244697</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:R27" si="46">O22*O22</f>
+        <v>2168064.8100342965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H23">
         <f>AVERAGE(H5:H6)</f>
         <v>89.9</v>
@@ -1764,8 +2320,44 @@
         <f>AVERAGE(I5:I6)</f>
         <v>75001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="42"/>
+        <v>72415.61278904551</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K27" si="47">500000000*POWER(H23,-1.955)</f>
+        <v>75747.762183089595</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L27" si="48">$J$30*POWER(H23,$I$29)</f>
+        <v>76837.682824235919</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M27" si="49">$I23-J23</f>
+        <v>2585.38721095449</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="43"/>
+        <v>-746.76218308959506</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="44"/>
+        <v>-1836.6828242359188</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P27" si="50">M23*M23</f>
+        <v>6684227.0305670369</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="45"/>
+        <v>557653.75809273787</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="46"/>
+        <v>3373403.7968432312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H24">
         <f>AVERAGE(H8:H9)</f>
         <v>105.86666666666667</v>
@@ -1774,8 +2366,44 @@
         <f>AVERAGE(I8:I9)</f>
         <v>56251</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="42"/>
+        <v>52519.199705531842</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="47"/>
+        <v>55025.714692109606</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="48"/>
+        <v>55728.172797086336</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="49"/>
+        <v>3731.8002944681575</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="43"/>
+        <v>1225.2853078903936</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="44"/>
+        <v>522.82720291366422</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="50"/>
+        <v>13926333.437792627</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="45"/>
+        <v>1501324.0857320565</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="46"/>
+        <v>273348.28410652583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H25">
         <f>AVERAGE(H11:H12)</f>
         <v>128.39166666666665</v>
@@ -1784,8 +2412,44 @@
         <f>AVERAGE(I11:I12)</f>
         <v>37501</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="42"/>
+        <v>35949.687585460975</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="47"/>
+        <v>37738.139796541444</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="48"/>
+        <v>38147.76660355505</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="49"/>
+        <v>1551.3124145390248</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="43"/>
+        <v>-237.1397965414435</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="44"/>
+        <v>-646.7666035550501</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="50"/>
+        <v>2406570.2075028988</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="45"/>
+        <v>56235.283103717222</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="46"/>
+        <v>418307.03947413532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H26">
         <f>AVERAGE(H14:H15)</f>
         <v>187.625</v>
@@ -1794,8 +2458,44 @@
         <f>AVERAGE(I14:I15)</f>
         <v>18751</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="42"/>
+        <v>17059.007829179871</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="47"/>
+        <v>17975.735766641443</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="48"/>
+        <v>18103.467677864941</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="49"/>
+        <v>1691.9921708201291</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="43"/>
+        <v>775.26423335855725</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="44"/>
+        <v>647.53232213505908</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="50"/>
+        <v>2862837.5061166128</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="45"/>
+        <v>601034.63152503152</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="46"/>
+        <v>419298.10820962192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H27">
         <f>AVERAGE(H17:H18)</f>
         <v>254.80833333333334</v>
@@ -1803,6 +2503,86 @@
       <c r="I27">
         <f>AVERAGE(I17:I18)</f>
         <v>9735</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="42"/>
+        <v>9348.8938108131351</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="47"/>
+        <v>9881.4883545086104</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="48"/>
+        <v>9921.9187288889425</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="49"/>
+        <v>386.10618918686487</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="43"/>
+        <v>-146.48835450861043</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="44"/>
+        <v>-186.9187288889425</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="50"/>
+        <v>149077.98932840308</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="45"/>
+        <v>21458.838006640326</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="46"/>
+        <v>34938.611209457988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f>AVERAGE(M22:M27)</f>
+        <v>2788.0109025084253</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:O28" si="51">AVERAGE(N22:N27)</f>
+        <v>622.42237343223167</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="51"/>
+        <v>-4.5956063579739448</v>
+      </c>
+      <c r="P28">
+        <f>SQRT(SUM(P22:P27))</f>
+        <v>8486.3032396623239</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:R28" si="52">SQRT(SUM(Q22:Q27))</f>
+        <v>3307.9224490467054</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="52"/>
+        <v>2585.993165087114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="array" ref="I29:K29">LINEST(LOG10(I22:I27),LOG10(H22:H27), TRUE, FALSE)</f>
+        <v>-1.9647935942309411</v>
+      </c>
+      <c r="J29">
+        <v>8.7243087864555839</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>10^J29</f>
+        <v>530040172.26774108</v>
       </c>
     </row>
   </sheetData>
